--- a/QuanLyDuAn v2/Report/Report V2.xlsx
+++ b/QuanLyDuAn v2/Report/Report V2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyDuAn\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyDuAn v2\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DAEBE3-0D26-4775-AD6C-8943592D172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD2735-67CD-4F42-AC64-7C112B212E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{929C3EAC-48B1-4966-BA7F-A11B6B10E777}"/>
   </bookViews>
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,29 +261,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -384,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,69 +391,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,10 +794,10 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
@@ -809,7 +809,7 @@
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,10 +841,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
@@ -858,355 +858,355 @@
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A14" s="4">
+    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>8</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
@@ -1220,195 +1220,195 @@
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="11">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="11">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <v>2</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>1.8</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <v>2</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="14">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1.5</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>59</v>
       </c>
     </row>
